--- a/src/main/java/Book1.xlsx
+++ b/src/main/java/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="24855" windowHeight="12015"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -84,12 +84,31 @@
   </si>
   <si>
     <t>(All)</t>
+  </si>
+  <si>
+    <t>paneer</t>
+  </si>
+  <si>
+    <t>namak</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>Manchurian</t>
+  </si>
+  <si>
+    <t>Myrecipy</t>
+  </si>
+  <si>
+    <t>Chili</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -127,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -135,6 +154,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,65 +183,68 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Sudhee" refreshedDate="41803.528507175928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="41804.802133333331" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="5">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Name" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="5">
         <s v="Pasta"/>
         <s v="Pizza"/>
         <s v="Dal"/>
+        <s v="Manchurian"/>
+        <s v="Myrecipy"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ingridient1" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="5">
         <s v="Tomato"/>
         <s v="Corn"/>
         <s v="Lenthil"/>
+        <s v="Cheese"/>
+        <s v="paneer"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ingridient2" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="4">
         <s v="Spagetti"/>
         <s v="Cheese"/>
         <s v="Onion"/>
+        <s v="namak"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Ingredient3" numFmtId="0">
-      <sharedItems count="3">
+      <sharedItems count="5">
         <s v="salt"/>
         <s v="Onion"/>
         <s v="Tomato"/>
+        <s v="Chili"/>
+        <s v="oil"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Vegetarian?" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Calories" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="400" count="3">
-        <n v="200"/>
-        <n v="400"/>
-        <n v="300"/>
-      </sharedItems>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="897"/>
     </cacheField>
     <cacheField name="Cost" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="450"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="678"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="3">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="5">
   <r>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Y"/>
-    <x v="0"/>
+    <n v="200"/>
     <n v="350"/>
   </r>
   <r>
@@ -230,8 +253,8 @@
     <x v="1"/>
     <x v="1"/>
     <s v="Y"/>
-    <x v="1"/>
-    <n v="450"/>
+    <n v="400"/>
+    <n v="460"/>
   </r>
   <r>
     <x v="2"/>
@@ -239,65 +262,86 @@
     <x v="2"/>
     <x v="2"/>
     <s v="Y"/>
+    <n v="300"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
     <x v="2"/>
-    <n v="200"/>
+    <x v="3"/>
+    <s v="Y"/>
+    <n v="600"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="4"/>
+    <s v="Y"/>
+    <n v="897"/>
+    <n v="678"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="6">
         <item x="2"/>
         <item x="0"/>
         <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="6">
         <item x="1"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="5">
         <item x="1"/>
         <item x="2"/>
         <item x="0"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="4">
+      <items count="6">
         <item x="1"/>
         <item x="0"/>
         <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="3">
     <i>
-      <x v="2"/>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
     </i>
     <i t="grand">
       <x/>
@@ -307,8 +351,8 @@
     <i/>
   </colItems>
   <pageFields count="3">
-    <pageField fld="1" item="0" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" item="1" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -319,8 +363,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G5" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:G7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Name"/>
     <tableColumn id="2" name="Ingridient1"/>
@@ -619,19 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:G5"/>
+  <dimension ref="A2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -700,7 +744,7 @@
         <v>400</v>
       </c>
       <c r="G4">
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -724,6 +768,52 @@
       </c>
       <c r="G5">
         <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>600</v>
+      </c>
+      <c r="G6" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>897</v>
+      </c>
+      <c r="G7" s="5">
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -737,18 +827,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:B11"/>
+  <dimension ref="A5:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="4.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:2">
@@ -756,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -764,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -785,18 +876,26 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10" s="4">
-        <v>450</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="4">
-        <v>450</v>
+      <c r="B12" s="4">
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/Book1.xlsx
+++ b/src/main/java/Book1.xlsx
@@ -12,13 +12,13 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -108,7 +108,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="41804.802133333331" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="5">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Windows User" refreshedDate="41805.025539467591" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="5">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -287,8 +286,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A9:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A9:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
       <items count="6">
@@ -336,12 +335,9 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="2">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -352,7 +348,7 @@
   </colItems>
   <pageFields count="3">
     <pageField fld="1" hier="-1"/>
-    <pageField fld="2" item="1" hier="-1"/>
+    <pageField fld="2" item="2" hier="-1"/>
     <pageField fld="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
@@ -671,11 +667,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
@@ -827,19 +823,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A5:B12"/>
+  <dimension ref="A5:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="4.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="4" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:2">
@@ -855,7 +851,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -876,26 +872,18 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B10" s="4">
-        <v>200</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B11" s="4">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>600</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
